--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdua\OneDrive\Рабочий стол\ai_telephony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281EB1FF-93C8-47D3-9A6C-05350A1F9883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49E32D6-A958-489D-BF17-57E79B56925E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Abduaziz</t>
   </si>
 </sst>
 </file>
@@ -345,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -356,14 +362,20 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>907201646</v>
+        <v>913316680</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdua\OneDrive\Рабочий стол\ai_telephony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49E32D6-A958-489D-BF17-57E79B56925E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F231CB6D-F94C-422D-880C-39275C69B205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>phone</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Abduaziz</t>
+  </si>
+  <si>
+    <t>Jamshid</t>
   </si>
 </sst>
 </file>
@@ -351,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -372,10 +375,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>913316680</v>
+        <v>907303455</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>886762208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdua\OneDrive\Рабочий стол\ai_telephony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F231CB6D-F94C-422D-880C-39275C69B205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D663FA-4DEE-4CF3-91C6-14B71C864A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,7 +357,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,7 +383,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>886762208</v>
+        <v>907303455</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdua\OneDrive\Рабочий стол\ai_telephony\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D663FA-4DEE-4CF3-91C6-14B71C864A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB608294-B73A-42E3-8478-079147A7C052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,8 +356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
